--- a/data/Shlomi_fig2_results_summarized.xlsx
+++ b/data/Shlomi_fig2_results_summarized.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
     <t>Affected reactions</t>
   </si>
@@ -85,7 +85,7 @@
     <t>Glycine encephalopathy/ nonketotic hyperglycinemia / NKH</t>
   </si>
   <si>
-    <t>SEAHCYSHYD, AHCi</t>
+    <t>AHCi, SEAHCYSHYD</t>
   </si>
   <si>
     <t>HGNTOR</t>
@@ -115,7 +115,7 @@
     <t>OIVD2m, OIVD1m, OIVD3m</t>
   </si>
   <si>
-    <t>SELMETAT, METAT</t>
+    <t>METAT, SELMETAT</t>
   </si>
   <si>
     <t>CBLATm, CBL2tm, MMMm</t>
@@ -157,31 +157,10 @@
     <t>L-Cysteine</t>
   </si>
   <si>
-    <t>L-Serine, L-Alanine, Glycine, L-Glutamate, L-Proline, L-Glutamine, L-Asparagine</t>
-  </si>
-  <si>
-    <t>L-Serine, L-Glutamate, Glycine, L-Alanine, L-Proline, L-Glutamine, L-Asparagine</t>
-  </si>
-  <si>
-    <t>L-Serine, L-Glutamate, L-Alanine, Glycine, L-Proline, L-Glutamine, L-Asparagine</t>
-  </si>
-  <si>
-    <t>L-Serine, L-Alanine, Glycine, L-Glutamate, L-Glutamine, L-Proline, L-Asparagine</t>
-  </si>
-  <si>
-    <t>Glycine</t>
-  </si>
-  <si>
-    <t>L-Glutamine, L-Proline, L-Asparagine, Glycine, L-Alanine, L-Serine, L-Glutamate</t>
-  </si>
-  <si>
-    <t>L-Glutamine, L-Proline, L-Asparagine, L-Glutamate, L-Alanine, Glycine, L-Serine</t>
-  </si>
-  <si>
-    <t>L-Glutamine, L-Proline, L-Asparagine, L-Alanine, Glycine, L-Serine</t>
-  </si>
-  <si>
-    <t>L-Glutamine, L-Proline, L-Asparagine, L-Alanine, Glycine, L-Serine, L-Glutamate</t>
+    <t>L-Asparagine, L-Glutamine</t>
+  </si>
+  <si>
+    <t>L-Glutamine, L-Asparagine</t>
   </si>
 </sst>
 </file>
@@ -579,7 +558,7 @@
         <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -631,7 +610,7 @@
         <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -645,7 +624,7 @@
         <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -662,7 +641,7 @@
         <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -684,7 +663,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -701,7 +680,7 @@
         <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -715,7 +694,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -731,8 +710,8 @@
       <c r="D14" t="s">
         <v>41</v>
       </c>
-      <c r="E14" t="s">
-        <v>48</v>
+      <c r="F14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -742,9 +721,6 @@
       <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="E15" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
@@ -771,7 +747,7 @@
         <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -780,9 +756,6 @@
       </c>
       <c r="B18" t="s">
         <v>39</v>
-      </c>
-      <c r="E18" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
